--- a/bots/crawl_ch/output/toilet_coop_2022-09-13.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-09-13.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
@@ -748,36 +748,36 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6497242</t>
+          <t>6568452</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig</t>
+          <t>Super Soft Premium Mandel feucht 4x  50ST</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/super-soft-wc-papier-sensation-4-rollen-3-lagig/p/6497242</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-premium-mandel-feucht/p/6568452</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4Rol</t>
+          <t>4x 50ST</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -786,71 +786,71 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.81/1Rol</t>
+          <t>0.04/1ST</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig 3.25 Schweizer Franken</t>
+          <t>Super Soft Premium Mandel feucht 4x  50ST 35% Aktion 7.65 Schweizer Franken statt 11.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6568452</t>
+          <t>6497242</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Super Soft Premium Mandel feucht 4x  50ST</t>
+          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-premium-mandel-feucht/p/6568452</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/super-soft-wc-papier-sensation-4-rollen-3-lagig/p/6497242</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4x 50ST</t>
+          <t>4Rol</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -859,42 +859,42 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.04/1ST</t>
+          <t>0.81/1Rol</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Super Soft Premium Mandel feucht 4x  50ST 35% Aktion 7.65 Schweizer Franken statt 11.80 Schweizer Franken</t>
+          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
@@ -2197,137 +2197,137 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6996030</t>
+          <t>3874909</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen</t>
+          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-3-lagig-4-rollen/p/6996030</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/oecoplan-papiertaschentuecher-special-edition-calendula-30x10-stueck/p/3874909</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>200BLT</t>
+          <t>30ST</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0.12/1ST</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen 5.95 Schweizer Franken</t>
+          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück 20% Aktion 3.65 Schweizer Franken statt 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3874909</t>
+          <t>6996030</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück</t>
+          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/oecoplan-papiertaschentuecher-special-edition-calendula-30x10-stueck/p/3874909</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-3-lagig-4-rollen/p/6996030</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>30ST</t>
+          <t>200BLT</t>
         </is>
       </c>
       <c r="E28" t="n">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>0.12/1ST</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück 20% Aktion 3.65 Schweizer Franken statt 4.60 Schweizer Franken</t>
+          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
@@ -2615,123 +2615,123 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6636712</t>
+          <t>6283677</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Pampers Coconut Pure 42 Feuchttücher</t>
+          <t>Oecoplan Goldmelisse blau 3-lagig 32 Rollen</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/pampers-coconut-pure-42-feuchttuecher/p/6636712</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/oecoplan-goldmelisse-blau-3-lagig-32-rollen/p/6283677</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>42ST</t>
+          <t>32Rol</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>14.80</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.12/1ST</t>
+          <t>0.46/1Rol</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Pampers Coconut Pure 42 Feuchttücher 4.95 Schweizer Franken</t>
+          <t>Oecoplan Goldmelisse blau 3-lagig 32 Rollen 30% Aktion 14.80 Schweizer Franken statt 21.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6727164</t>
+          <t>6636712</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Wetties Allzwecktücher 80Stück</t>
+          <t>Pampers Coconut Pure 42 Feuchttücher</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/wetties-allzwecktuecher-80stueck/p/6727164</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/pampers-coconut-pure-42-feuchttuecher/p/6636712</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>80ST</t>
+          <t>42ST</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0.05/1ST</t>
+          <t>0.12/1ST</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2756,34 +2756,34 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Wetties Allzwecktücher 80Stück 3.95 Schweizer Franken</t>
+          <t>Pampers Coconut Pure 42 Feuchttücher 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6283677</t>
+          <t>6727164</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Oecoplan Goldmelisse blau 3-lagig 32 Rollen</t>
+          <t>Wetties Allzwecktücher 80Stück</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/oecoplan-goldmelisse-blau-3-lagig-32-rollen/p/6283677</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/wetties-allzwecktuecher-80stueck/p/6727164</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>32Rol</t>
+          <t>80ST</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -2799,42 +2799,42 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>14.80</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0.46/1Rol</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Oecoplan Goldmelisse blau 3-lagig 32 Rollen 30% Aktion 14.80 Schweizer Franken statt 21.20 Schweizer Franken</t>
+          <t>Wetties Allzwecktücher 80Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-09-13 07:33:48</t>
+          <t>2022-09-13 21:00:31</t>
         </is>
       </c>
     </row>
